--- a/BackTest/2019-10-19 BackTest XRP.xlsx
+++ b/BackTest/2019-10-19 BackTest XRP.xlsx
@@ -1466,20 +1466,14 @@
         <v>345.2833333333334</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>345</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1507,20 +1501,14 @@
         <v>345.2833333333334</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>344</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1548,20 +1536,14 @@
         <v>345.2666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>344</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1589,20 +1571,14 @@
         <v>345.2666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>344</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1630,20 +1606,14 @@
         <v>345.2666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>344</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1671,20 +1641,14 @@
         <v>345.25</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>344</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1712,20 +1676,14 @@
         <v>345.2333333333333</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>344</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1753,20 +1711,14 @@
         <v>345.2</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>344</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1794,20 +1746,14 @@
         <v>345.1666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>344</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1835,20 +1781,14 @@
         <v>345.1333333333333</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>344</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1876,20 +1816,14 @@
         <v>345.1</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>345</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1917,20 +1851,14 @@
         <v>345.0666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>345</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1958,20 +1886,14 @@
         <v>345.0333333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>344</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1999,20 +1921,14 @@
         <v>345</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>344</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2040,20 +1956,14 @@
         <v>344.9833333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>344</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2081,20 +1991,14 @@
         <v>344.9666666666666</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>344</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2122,20 +2026,14 @@
         <v>344.9333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>345</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2163,20 +2061,14 @@
         <v>344.9</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>344</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2204,20 +2096,14 @@
         <v>344.8666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>344</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2245,20 +2131,14 @@
         <v>344.8666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>345</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2286,20 +2166,14 @@
         <v>344.85</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>344</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2327,20 +2201,14 @@
         <v>344.8333333333333</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>344</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2368,20 +2236,14 @@
         <v>344.8166666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>344</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2409,20 +2271,14 @@
         <v>344.7833333333334</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>344</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2450,20 +2306,14 @@
         <v>344.7666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>345</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2491,20 +2341,14 @@
         <v>344.7333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>344</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2532,20 +2376,14 @@
         <v>344.7166666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>345</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2573,20 +2411,14 @@
         <v>344.7</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>345</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2614,20 +2446,14 @@
         <v>344.7</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>344</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2655,20 +2481,14 @@
         <v>344.7</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>346</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2696,20 +2516,14 @@
         <v>344.7</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>346</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2783,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2822,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2861,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2900,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2939,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2978,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3017,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3056,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3095,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3173,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3251,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3329,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3368,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3407,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3446,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3524,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3680,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3875,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3914,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3992,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4187,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4226,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4265,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4304,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4343,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4382,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4421,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4460,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4499,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4538,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4577,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4616,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4655,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4694,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4733,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4772,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4850,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4889,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4928,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4967,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5006,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5045,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5084,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5123,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5162,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5201,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5240,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5279,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5357,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5396,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5435,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5474,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5513,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5552,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5591,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5630,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5669,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5708,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5747,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5786,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5825,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5864,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5903,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5942,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5981,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6020,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6059,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6098,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6137,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6176,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6215,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6254,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6293,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6332,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6371,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6410,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6449,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6488,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6527,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6566,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6605,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6644,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6683,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6722,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6761,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6800,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6839,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6878,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6917,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6956,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6995,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7073,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7112,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7151,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7190,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7229,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7268,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7307,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7346,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7385,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7424,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7463,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7502,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7541,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7580,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7619,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7658,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7736,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7775,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7814,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7853,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7892,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7931,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7970,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8009,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8048,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8087,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8126,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8165,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8204,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8243,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8282,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8321,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8360,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8399,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8438,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8477,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8516,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8555,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8594,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8633,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8672,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8711,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8750,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8789,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8828,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8867,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8906,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8945,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8984,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9023,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9062,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9101,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9179,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9218,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9257,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9296,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9335,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9374,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9413,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9452,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9491,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9530,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9569,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9608,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9647,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9686,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9725,11 +8823,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9764,11 +8858,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9803,11 +8893,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9842,11 +8928,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9881,11 +8963,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +8998,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9959,11 +9033,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9998,11 +9068,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10037,11 +9103,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10076,11 +9138,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10115,11 +9173,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10154,11 +9208,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10193,11 +9243,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10232,11 +9278,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10271,11 +9313,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10310,11 +9348,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10349,11 +9383,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10388,11 +9418,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10427,11 +9453,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10466,11 +9488,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10505,11 +9523,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10544,11 +9558,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10583,11 +9593,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10622,11 +9628,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10661,11 +9663,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10700,11 +9698,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10739,11 +9733,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10778,11 +9768,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10817,11 +9803,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10856,11 +9838,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10895,11 +9873,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10934,11 +9908,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10973,11 +9943,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11012,11 +9978,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11051,11 +10013,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11090,11 +10048,7 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11129,11 +10083,7 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11168,11 +10118,7 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11207,11 +10153,7 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11246,11 +10188,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11285,11 +10223,7 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11324,11 +10258,7 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11363,11 +10293,7 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11402,11 +10328,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11441,11 +10363,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11480,11 +10398,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11519,11 +10433,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11558,11 +10468,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11597,11 +10503,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11636,11 +10538,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11675,11 +10573,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +10608,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11753,11 +10643,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11792,11 +10678,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11831,11 +10713,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11870,11 +10748,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11909,11 +10783,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11948,11 +10818,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11987,11 +10853,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12026,11 +10888,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12065,11 +10923,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12104,11 +10958,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12143,11 +10993,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12182,11 +11028,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12221,11 +11063,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12260,11 +11098,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12299,11 +11133,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12338,11 +11168,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12377,11 +11203,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12416,11 +11238,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12455,11 +11273,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12494,11 +11308,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12533,11 +11343,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12572,11 +11378,7 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12611,11 +11413,7 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12650,11 +11448,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12689,11 +11483,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12728,11 +11518,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12767,11 +11553,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12806,11 +11588,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12845,11 +11623,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12884,11 +11658,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12923,11 +11693,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12962,11 +11728,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13001,11 +11763,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13033,18 +11791,18 @@
         <v>349.3333333333333</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="n">
+        <v>346</v>
+      </c>
+      <c r="K326" t="n">
+        <v>346</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13072,16 +11830,20 @@
         <v>349.2833333333334</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>346</v>
+      </c>
+      <c r="K327" t="n">
+        <v>346</v>
+      </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M327" t="n">
@@ -13111,16 +11873,20 @@
         <v>349.2166666666666</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>347</v>
+      </c>
+      <c r="K328" t="n">
+        <v>346</v>
+      </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M328" t="n">
@@ -13150,16 +11916,20 @@
         <v>349.15</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>346</v>
+      </c>
+      <c r="K329" t="n">
+        <v>346</v>
+      </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M329" t="n">
@@ -13189,13 +11959,17 @@
         <v>349.0666666666667</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>346</v>
+      </c>
+      <c r="K330" t="n">
+        <v>346</v>
+      </c>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13228,13 +12002,17 @@
         <v>348.9833333333333</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>346</v>
+      </c>
+      <c r="K331" t="n">
+        <v>346</v>
+      </c>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13267,13 +12045,17 @@
         <v>348.9166666666667</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>346</v>
+      </c>
+      <c r="K332" t="n">
+        <v>346</v>
+      </c>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13312,7 +12094,9 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>346</v>
+      </c>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13351,7 +12135,9 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>346</v>
+      </c>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13390,7 +12176,9 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>346</v>
+      </c>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13429,7 +12217,9 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>346</v>
+      </c>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13468,7 +12258,9 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>346</v>
+      </c>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13507,7 +12299,9 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>346</v>
+      </c>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13546,7 +12340,9 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>346</v>
+      </c>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13585,7 +12381,9 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>346</v>
+      </c>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13624,7 +12422,9 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>346</v>
+      </c>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13663,7 +12463,9 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>346</v>
+      </c>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13702,7 +12504,9 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>346</v>
+      </c>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13741,7 +12545,9 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>346</v>
+      </c>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13780,7 +12586,9 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>346</v>
+      </c>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13819,7 +12627,9 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>346</v>
+      </c>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13858,7 +12668,9 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>346</v>
+      </c>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13897,7 +12709,9 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>346</v>
+      </c>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13936,7 +12750,9 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>346</v>
+      </c>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13975,7 +12791,9 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>346</v>
+      </c>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14014,7 +12832,9 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>346</v>
+      </c>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14053,7 +12873,9 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>346</v>
+      </c>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14092,7 +12914,9 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>346</v>
+      </c>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14131,7 +12955,9 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>346</v>
+      </c>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14170,7 +12996,9 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>346</v>
+      </c>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14209,7 +13037,9 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>346</v>
+      </c>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14248,7 +13078,9 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>346</v>
+      </c>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14287,7 +13119,9 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>346</v>
+      </c>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14326,7 +13160,9 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>346</v>
+      </c>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14365,7 +13201,9 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>346</v>
+      </c>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14404,7 +13242,9 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>346</v>
+      </c>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14443,7 +13283,9 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>346</v>
+      </c>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14482,7 +13324,9 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>346</v>
+      </c>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14521,7 +13365,9 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>346</v>
+      </c>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14560,7 +13406,9 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>346</v>
+      </c>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14599,7 +13447,9 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>346</v>
+      </c>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14638,7 +13488,9 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>346</v>
+      </c>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14677,7 +13529,9 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>346</v>
+      </c>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14716,7 +13570,9 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>346</v>
+      </c>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14755,7 +13611,9 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>346</v>
+      </c>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14794,7 +13652,9 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>346</v>
+      </c>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14833,7 +13693,9 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>346</v>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14872,7 +13734,9 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>346</v>
+      </c>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14911,7 +13775,9 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>346</v>
+      </c>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14950,7 +13816,9 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>346</v>
+      </c>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14989,7 +13857,9 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>346</v>
+      </c>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15028,7 +13898,9 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>346</v>
+      </c>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15067,7 +13939,9 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>346</v>
+      </c>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15106,7 +13980,9 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>346</v>
+      </c>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15145,7 +14021,9 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>346</v>
+      </c>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15184,7 +14062,9 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>346</v>
+      </c>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15223,7 +14103,9 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>346</v>
+      </c>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15262,7 +14144,9 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>346</v>
+      </c>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15301,7 +14185,9 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>346</v>
+      </c>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15340,7 +14226,9 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>346</v>
+      </c>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15379,7 +14267,9 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>346</v>
+      </c>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15418,7 +14308,9 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>346</v>
+      </c>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15457,7 +14349,9 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>346</v>
+      </c>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15496,7 +14390,9 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>346</v>
+      </c>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15535,7 +14431,9 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>346</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15574,7 +14472,9 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>346</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15613,7 +14513,9 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>346</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15652,7 +14554,9 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>346</v>
+      </c>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15691,7 +14595,9 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>346</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15730,7 +14636,9 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>346</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15769,7 +14677,9 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>346</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15808,7 +14718,9 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>346</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15847,7 +14759,9 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>346</v>
+      </c>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15886,7 +14800,9 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>346</v>
+      </c>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15925,7 +14841,9 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>346</v>
+      </c>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15964,7 +14882,9 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>346</v>
+      </c>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16003,7 +14923,9 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>346</v>
+      </c>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16042,7 +14964,9 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>346</v>
+      </c>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16081,7 +15005,9 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>346</v>
+      </c>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16120,7 +15046,9 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>346</v>
+      </c>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16159,7 +15087,9 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>346</v>
+      </c>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16198,7 +15128,9 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>346</v>
+      </c>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16237,7 +15169,9 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>346</v>
+      </c>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16276,7 +15210,9 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>346</v>
+      </c>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16315,7 +15251,9 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>346</v>
+      </c>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16354,7 +15292,9 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>346</v>
+      </c>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16393,7 +15333,9 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>346</v>
+      </c>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16432,7 +15374,9 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>346</v>
+      </c>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16471,7 +15415,9 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>346</v>
+      </c>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16510,7 +15456,9 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>346</v>
+      </c>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16549,7 +15497,9 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>346</v>
+      </c>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16588,7 +15538,9 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>346</v>
+      </c>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16627,7 +15579,9 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>346</v>
+      </c>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16666,7 +15620,9 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>346</v>
+      </c>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16705,7 +15661,9 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>346</v>
+      </c>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16744,7 +15702,9 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>346</v>
+      </c>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16783,7 +15743,9 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>346</v>
+      </c>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16816,15 +15778,15 @@
         <v>345.3333333333333</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>344</v>
-      </c>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>346</v>
+      </c>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16863,7 +15825,9 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>346</v>
+      </c>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16902,7 +15866,9 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>346</v>
+      </c>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16941,7 +15907,9 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>346</v>
+      </c>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16980,7 +15948,9 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>346</v>
+      </c>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17019,7 +15989,9 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>346</v>
+      </c>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17058,7 +16030,9 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>346</v>
+      </c>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17097,7 +16071,9 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>346</v>
+      </c>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17130,15 +16106,15 @@
         <v>345.1833333333333</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>344</v>
-      </c>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>346</v>
+      </c>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17171,15 +16147,15 @@
         <v>345.1666666666667</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>344</v>
-      </c>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>346</v>
+      </c>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17212,15 +16188,15 @@
         <v>345.1333333333333</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>344</v>
-      </c>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>346</v>
+      </c>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17253,15 +16229,15 @@
         <v>345.1</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>344</v>
-      </c>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>346</v>
+      </c>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17294,15 +16270,15 @@
         <v>345.05</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>343</v>
-      </c>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>346</v>
+      </c>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17335,15 +16311,15 @@
         <v>345.0333333333334</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>344</v>
-      </c>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>346</v>
+      </c>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17376,15 +16352,15 @@
         <v>345</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>343</v>
-      </c>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>346</v>
+      </c>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17417,15 +16393,15 @@
         <v>344.9666666666666</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>344</v>
-      </c>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>346</v>
+      </c>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17458,15 +16434,15 @@
         <v>344.9166666666667</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>343</v>
-      </c>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>346</v>
+      </c>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17499,15 +16475,15 @@
         <v>344.8833333333333</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>344</v>
-      </c>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>346</v>
+      </c>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17540,15 +16516,15 @@
         <v>344.85</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>343</v>
-      </c>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>346</v>
+      </c>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17581,15 +16557,15 @@
         <v>344.8166666666667</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>344</v>
-      </c>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>346</v>
+      </c>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17622,15 +16598,15 @@
         <v>344.8</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
       </c>
-      <c r="J443" t="n">
-        <v>344</v>
-      </c>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>346</v>
+      </c>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17663,15 +16639,15 @@
         <v>344.8</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
-      <c r="J444" t="n">
-        <v>345</v>
-      </c>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>346</v>
+      </c>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17704,15 +16680,15 @@
         <v>344.8</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
       </c>
-      <c r="J445" t="n">
-        <v>345</v>
-      </c>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>346</v>
+      </c>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17745,15 +16721,15 @@
         <v>344.7833333333334</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
       </c>
-      <c r="J446" t="n">
-        <v>345</v>
-      </c>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>346</v>
+      </c>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17786,15 +16762,15 @@
         <v>344.7666666666667</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
       </c>
-      <c r="J447" t="n">
-        <v>345</v>
-      </c>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>346</v>
+      </c>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17827,15 +16803,15 @@
         <v>344.75</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
       </c>
-      <c r="J448" t="n">
-        <v>345</v>
-      </c>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>346</v>
+      </c>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17868,15 +16844,15 @@
         <v>344.7166666666666</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
       </c>
-      <c r="J449" t="n">
-        <v>345</v>
-      </c>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>346</v>
+      </c>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17909,15 +16885,15 @@
         <v>344.7</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
       </c>
-      <c r="J450" t="n">
-        <v>345</v>
-      </c>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>346</v>
+      </c>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17950,15 +16926,15 @@
         <v>344.7</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
       </c>
-      <c r="J451" t="n">
-        <v>345</v>
-      </c>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>346</v>
+      </c>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17991,15 +16967,15 @@
         <v>344.7</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
       </c>
-      <c r="J452" t="n">
-        <v>345</v>
-      </c>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>346</v>
+      </c>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18038,7 +17014,9 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>346</v>
+      </c>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18077,7 +17055,9 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>346</v>
+      </c>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18116,7 +17096,9 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>346</v>
+      </c>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18155,7 +17137,9 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>346</v>
+      </c>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18194,7 +17178,9 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>346</v>
+      </c>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18233,7 +17219,9 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>346</v>
+      </c>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18272,7 +17260,9 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>346</v>
+      </c>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18311,7 +17301,9 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>346</v>
+      </c>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18350,7 +17342,9 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>346</v>
+      </c>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18389,7 +17383,9 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>346</v>
+      </c>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18428,7 +17424,9 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>346</v>
+      </c>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18467,7 +17465,9 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>346</v>
+      </c>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18506,7 +17506,9 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>346</v>
+      </c>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18545,7 +17547,9 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>346</v>
+      </c>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18584,7 +17588,9 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>346</v>
+      </c>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18623,7 +17629,9 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>346</v>
+      </c>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18662,7 +17670,9 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>346</v>
+      </c>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18701,7 +17711,9 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>346</v>
+      </c>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18740,7 +17752,9 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>346</v>
+      </c>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18779,7 +17793,9 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>346</v>
+      </c>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18818,7 +17834,9 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>346</v>
+      </c>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18857,7 +17875,9 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>346</v>
+      </c>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18896,7 +17916,9 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>346</v>
+      </c>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18935,7 +17957,9 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>346</v>
+      </c>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18974,7 +17998,9 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>346</v>
+      </c>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19013,7 +18039,9 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>346</v>
+      </c>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19052,7 +18080,9 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>346</v>
+      </c>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19091,7 +18121,9 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>346</v>
+      </c>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19130,7 +18162,9 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>346</v>
+      </c>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19169,7 +18203,9 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>346</v>
+      </c>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19208,7 +18244,9 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>346</v>
+      </c>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19247,7 +18285,9 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>346</v>
+      </c>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19286,7 +18326,9 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>346</v>
+      </c>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19325,7 +18367,9 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>346</v>
+      </c>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19364,7 +18408,9 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>346</v>
+      </c>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19403,7 +18449,9 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>346</v>
+      </c>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19442,7 +18490,9 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>346</v>
+      </c>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19481,7 +18531,9 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>346</v>
+      </c>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19520,7 +18572,9 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>346</v>
+      </c>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19559,7 +18613,9 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>346</v>
+      </c>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19598,7 +18654,9 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>346</v>
+      </c>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19637,7 +18695,9 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>346</v>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19676,7 +18736,9 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>346</v>
+      </c>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19715,7 +18777,9 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>346</v>
+      </c>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19754,7 +18818,9 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>346</v>
+      </c>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19793,7 +18859,9 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>346</v>
+      </c>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19832,7 +18900,9 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>346</v>
+      </c>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19871,7 +18941,9 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>346</v>
+      </c>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19910,7 +18982,9 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>346</v>
+      </c>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19949,7 +19023,9 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>346</v>
+      </c>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19988,7 +19064,9 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>346</v>
+      </c>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20027,7 +19105,9 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>346</v>
+      </c>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20066,7 +19146,9 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>346</v>
+      </c>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20105,7 +19187,9 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>346</v>
+      </c>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20144,7 +19228,9 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>346</v>
+      </c>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20183,7 +19269,9 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>346</v>
+      </c>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20222,7 +19310,9 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>346</v>
+      </c>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20261,7 +19351,9 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>346</v>
+      </c>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20300,7 +19392,9 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>346</v>
+      </c>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20339,7 +19433,9 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>346</v>
+      </c>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20378,7 +19474,9 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>346</v>
+      </c>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20417,7 +19515,9 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>346</v>
+      </c>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20456,7 +19556,9 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>346</v>
+      </c>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20495,7 +19597,9 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>346</v>
+      </c>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20534,7 +19638,9 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>346</v>
+      </c>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20573,7 +19679,9 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>346</v>
+      </c>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20612,7 +19720,9 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>346</v>
+      </c>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20651,7 +19761,9 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>346</v>
+      </c>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20690,7 +19802,9 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>346</v>
+      </c>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20729,7 +19843,9 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>346</v>
+      </c>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20768,7 +19884,9 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>346</v>
+      </c>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20807,7 +19925,9 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>346</v>
+      </c>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20846,7 +19966,9 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>346</v>
+      </c>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20885,7 +20007,9 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>346</v>
+      </c>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20924,7 +20048,9 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>346</v>
+      </c>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20963,7 +20089,9 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>346</v>
+      </c>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21002,7 +20130,9 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>346</v>
+      </c>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21041,7 +20171,9 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>346</v>
+      </c>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21080,7 +20212,9 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>346</v>
+      </c>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21119,7 +20253,9 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>346</v>
+      </c>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21158,7 +20294,9 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>346</v>
+      </c>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21197,7 +20335,9 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>346</v>
+      </c>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21236,7 +20376,9 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>346</v>
+      </c>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21275,7 +20417,9 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>346</v>
+      </c>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21314,7 +20458,9 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>346</v>
+      </c>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21353,7 +20499,9 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="n">
+        <v>346</v>
+      </c>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21392,7 +20540,9 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="n">
+        <v>346</v>
+      </c>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21431,7 +20581,9 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="n">
+        <v>346</v>
+      </c>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21470,7 +20622,9 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="n">
+        <v>346</v>
+      </c>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21509,7 +20663,9 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="n">
+        <v>346</v>
+      </c>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21548,7 +20704,9 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="n">
+        <v>346</v>
+      </c>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21587,7 +20745,9 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="n">
+        <v>346</v>
+      </c>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21626,7 +20786,9 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="n">
+        <v>346</v>
+      </c>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21665,7 +20827,9 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="n">
+        <v>346</v>
+      </c>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21704,7 +20868,9 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="n">
+        <v>346</v>
+      </c>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21743,7 +20909,9 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="n">
+        <v>346</v>
+      </c>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21782,7 +20950,9 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="n">
+        <v>346</v>
+      </c>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21821,7 +20991,9 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="n">
+        <v>346</v>
+      </c>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21860,7 +21032,9 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="n">
+        <v>346</v>
+      </c>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21899,7 +21073,9 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="n">
+        <v>346</v>
+      </c>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21938,7 +21114,9 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="n">
+        <v>346</v>
+      </c>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21977,7 +21155,9 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="n">
+        <v>346</v>
+      </c>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22016,7 +21196,9 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="n">
+        <v>346</v>
+      </c>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22055,7 +21237,9 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="n">
+        <v>346</v>
+      </c>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22094,7 +21278,9 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="n">
+        <v>346</v>
+      </c>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22133,7 +21319,9 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="n">
+        <v>346</v>
+      </c>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22172,7 +21360,9 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="n">
+        <v>346</v>
+      </c>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22211,7 +21401,9 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="n">
+        <v>346</v>
+      </c>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22250,7 +21442,9 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="n">
+        <v>346</v>
+      </c>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22289,7 +21483,9 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="n">
+        <v>346</v>
+      </c>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22328,7 +21524,9 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="n">
+        <v>346</v>
+      </c>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22367,7 +21565,9 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="n">
+        <v>346</v>
+      </c>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22406,7 +21606,9 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="n">
+        <v>346</v>
+      </c>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22445,7 +21647,9 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="n">
+        <v>346</v>
+      </c>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22484,7 +21688,9 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="n">
+        <v>346</v>
+      </c>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22523,7 +21729,9 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="n">
+        <v>346</v>
+      </c>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22562,7 +21770,9 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="n">
+        <v>346</v>
+      </c>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22601,7 +21811,9 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="n">
+        <v>346</v>
+      </c>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22640,7 +21852,9 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="n">
+        <v>346</v>
+      </c>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22679,7 +21893,9 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="n">
+        <v>346</v>
+      </c>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22718,7 +21934,9 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="n">
+        <v>346</v>
+      </c>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22757,7 +21975,9 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="n">
+        <v>346</v>
+      </c>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22796,7 +22016,9 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="n">
+        <v>346</v>
+      </c>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22835,7 +22057,9 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="n">
+        <v>346</v>
+      </c>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22874,7 +22098,9 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="n">
+        <v>346</v>
+      </c>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22913,7 +22139,9 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="n">
+        <v>346</v>
+      </c>
       <c r="L578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22952,7 +22180,9 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="n">
+        <v>346</v>
+      </c>
       <c r="L579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22991,7 +22221,9 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="n">
+        <v>346</v>
+      </c>
       <c r="L580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23030,7 +22262,9 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="n">
+        <v>346</v>
+      </c>
       <c r="L581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23069,7 +22303,9 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="n">
+        <v>346</v>
+      </c>
       <c r="L582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23108,7 +22344,9 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="n">
+        <v>346</v>
+      </c>
       <c r="L583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23147,7 +22385,9 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="n">
+        <v>346</v>
+      </c>
       <c r="L584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23186,7 +22426,9 @@
         <v>0</v>
       </c>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="n">
+        <v>346</v>
+      </c>
       <c r="L585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23225,7 +22467,9 @@
         <v>0</v>
       </c>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="n">
+        <v>346</v>
+      </c>
       <c r="L586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23264,7 +22508,9 @@
         <v>0</v>
       </c>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="n">
+        <v>346</v>
+      </c>
       <c r="L587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23303,7 +22549,9 @@
         <v>0</v>
       </c>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="n">
+        <v>346</v>
+      </c>
       <c r="L588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23342,7 +22590,9 @@
         <v>0</v>
       </c>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="n">
+        <v>346</v>
+      </c>
       <c r="L589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23381,7 +22631,9 @@
         <v>0</v>
       </c>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="n">
+        <v>346</v>
+      </c>
       <c r="L590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23420,7 +22672,9 @@
         <v>0</v>
       </c>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="n">
+        <v>346</v>
+      </c>
       <c r="L591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23459,7 +22713,9 @@
         <v>0</v>
       </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="n">
+        <v>346</v>
+      </c>
       <c r="L592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23498,7 +22754,9 @@
         <v>0</v>
       </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="n">
+        <v>346</v>
+      </c>
       <c r="L593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23537,7 +22795,9 @@
         <v>0</v>
       </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="n">
+        <v>346</v>
+      </c>
       <c r="L594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23576,7 +22836,9 @@
         <v>0</v>
       </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="n">
+        <v>346</v>
+      </c>
       <c r="L595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23615,7 +22877,9 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>346</v>
+      </c>
       <c r="L596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23654,7 +22918,9 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>346</v>
+      </c>
       <c r="L597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23693,7 +22959,9 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>346</v>
+      </c>
       <c r="L598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23732,7 +23000,9 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>346</v>
+      </c>
       <c r="L599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23771,7 +23041,9 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>346</v>
+      </c>
       <c r="L600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23810,7 +23082,9 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>346</v>
+      </c>
       <c r="L601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23849,7 +23123,9 @@
         <v>0</v>
       </c>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="n">
+        <v>346</v>
+      </c>
       <c r="L602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23888,7 +23164,9 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>346</v>
+      </c>
       <c r="L603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23927,7 +23205,9 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>346</v>
+      </c>
       <c r="L604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23966,7 +23246,9 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>346</v>
+      </c>
       <c r="L605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24005,7 +23287,9 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>346</v>
+      </c>
       <c r="L606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24044,7 +23328,9 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>346</v>
+      </c>
       <c r="L607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24083,7 +23369,9 @@
         <v>0</v>
       </c>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="n">
+        <v>346</v>
+      </c>
       <c r="L608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24122,7 +23410,9 @@
         <v>0</v>
       </c>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="n">
+        <v>346</v>
+      </c>
       <c r="L609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24161,7 +23451,9 @@
         <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="n">
+        <v>346</v>
+      </c>
       <c r="L610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24200,7 +23492,9 @@
         <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="n">
+        <v>346</v>
+      </c>
       <c r="L611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24239,7 +23533,9 @@
         <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="n">
+        <v>346</v>
+      </c>
       <c r="L612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24278,7 +23574,9 @@
         <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="n">
+        <v>346</v>
+      </c>
       <c r="L613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24317,7 +23615,9 @@
         <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="n">
+        <v>346</v>
+      </c>
       <c r="L614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24356,7 +23656,9 @@
         <v>0</v>
       </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="n">
+        <v>346</v>
+      </c>
       <c r="L615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24395,7 +23697,9 @@
         <v>0</v>
       </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="n">
+        <v>346</v>
+      </c>
       <c r="L616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24434,7 +23738,9 @@
         <v>0</v>
       </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="n">
+        <v>346</v>
+      </c>
       <c r="L617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24473,7 +23779,9 @@
         <v>0</v>
       </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="n">
+        <v>346</v>
+      </c>
       <c r="L618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24512,7 +23820,9 @@
         <v>0</v>
       </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="n">
+        <v>346</v>
+      </c>
       <c r="L619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24551,7 +23861,9 @@
         <v>0</v>
       </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="n">
+        <v>346</v>
+      </c>
       <c r="L620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24590,7 +23902,9 @@
         <v>0</v>
       </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="n">
+        <v>346</v>
+      </c>
       <c r="L621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24629,7 +23943,9 @@
         <v>0</v>
       </c>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="n">
+        <v>346</v>
+      </c>
       <c r="L622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24668,7 +23984,9 @@
         <v>0</v>
       </c>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="n">
+        <v>346</v>
+      </c>
       <c r="L623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24707,7 +24025,9 @@
         <v>0</v>
       </c>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="n">
+        <v>346</v>
+      </c>
       <c r="L624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24746,7 +24066,9 @@
         <v>0</v>
       </c>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="n">
+        <v>346</v>
+      </c>
       <c r="L625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24785,7 +24107,9 @@
         <v>0</v>
       </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="n">
+        <v>346</v>
+      </c>
       <c r="L626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24824,7 +24148,9 @@
         <v>0</v>
       </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="n">
+        <v>346</v>
+      </c>
       <c r="L627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24863,7 +24189,9 @@
         <v>0</v>
       </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="n">
+        <v>346</v>
+      </c>
       <c r="L628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24902,7 +24230,9 @@
         <v>0</v>
       </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="n">
+        <v>346</v>
+      </c>
       <c r="L629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24941,7 +24271,9 @@
         <v>0</v>
       </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="n">
+        <v>346</v>
+      </c>
       <c r="L630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24980,7 +24312,9 @@
         <v>0</v>
       </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="n">
+        <v>346</v>
+      </c>
       <c r="L631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25019,7 +24353,9 @@
         <v>0</v>
       </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="n">
+        <v>346</v>
+      </c>
       <c r="L632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25058,7 +24394,9 @@
         <v>0</v>
       </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="n">
+        <v>346</v>
+      </c>
       <c r="L633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25097,7 +24435,9 @@
         <v>0</v>
       </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="n">
+        <v>346</v>
+      </c>
       <c r="L634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25136,7 +24476,9 @@
         <v>0</v>
       </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="n">
+        <v>346</v>
+      </c>
       <c r="L635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25175,7 +24517,9 @@
         <v>0</v>
       </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="n">
+        <v>346</v>
+      </c>
       <c r="L636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25214,7 +24558,9 @@
         <v>0</v>
       </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="n">
+        <v>346</v>
+      </c>
       <c r="L637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25253,7 +24599,9 @@
         <v>0</v>
       </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="n">
+        <v>346</v>
+      </c>
       <c r="L638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25292,7 +24640,9 @@
         <v>0</v>
       </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="n">
+        <v>346</v>
+      </c>
       <c r="L639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25331,7 +24681,9 @@
         <v>0</v>
       </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="n">
+        <v>346</v>
+      </c>
       <c r="L640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25370,7 +24722,9 @@
         <v>0</v>
       </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="n">
+        <v>346</v>
+      </c>
       <c r="L641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25409,7 +24763,9 @@
         <v>0</v>
       </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="n">
+        <v>346</v>
+      </c>
       <c r="L642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25448,7 +24804,9 @@
         <v>0</v>
       </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="n">
+        <v>346</v>
+      </c>
       <c r="L643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25487,7 +24845,9 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="n">
+        <v>346</v>
+      </c>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25526,7 +24886,9 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="n">
+        <v>346</v>
+      </c>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25565,7 +24927,9 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="n">
+        <v>346</v>
+      </c>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25604,7 +24968,9 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="n">
+        <v>346</v>
+      </c>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25643,7 +25009,9 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="n">
+        <v>346</v>
+      </c>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25682,7 +25050,9 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="n">
+        <v>346</v>
+      </c>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25721,7 +25091,9 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="n">
+        <v>346</v>
+      </c>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25760,7 +25132,9 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="n">
+        <v>346</v>
+      </c>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25799,7 +25173,9 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="n">
+        <v>346</v>
+      </c>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25838,7 +25214,9 @@
         <v>0</v>
       </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="n">
+        <v>346</v>
+      </c>
       <c r="L653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25877,7 +25255,9 @@
         <v>0</v>
       </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="n">
+        <v>346</v>
+      </c>
       <c r="L654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25916,7 +25296,9 @@
         <v>0</v>
       </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="n">
+        <v>346</v>
+      </c>
       <c r="L655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25955,7 +25337,9 @@
         <v>0</v>
       </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="n">
+        <v>346</v>
+      </c>
       <c r="L656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25994,7 +25378,9 @@
         <v>0</v>
       </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="n">
+        <v>346</v>
+      </c>
       <c r="L657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26033,7 +25419,9 @@
         <v>0</v>
       </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="n">
+        <v>346</v>
+      </c>
       <c r="L658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26072,7 +25460,9 @@
         <v>0</v>
       </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="n">
+        <v>346</v>
+      </c>
       <c r="L659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26111,7 +25501,9 @@
         <v>0</v>
       </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="n">
+        <v>346</v>
+      </c>
       <c r="L660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26150,7 +25542,9 @@
         <v>0</v>
       </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="n">
+        <v>346</v>
+      </c>
       <c r="L661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26189,7 +25583,9 @@
         <v>0</v>
       </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="n">
+        <v>346</v>
+      </c>
       <c r="L662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26228,7 +25624,9 @@
         <v>0</v>
       </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="n">
+        <v>346</v>
+      </c>
       <c r="L663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26267,7 +25665,9 @@
         <v>0</v>
       </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="n">
+        <v>346</v>
+      </c>
       <c r="L664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26306,7 +25706,9 @@
         <v>0</v>
       </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="n">
+        <v>346</v>
+      </c>
       <c r="L665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26345,7 +25747,9 @@
         <v>0</v>
       </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="n">
+        <v>346</v>
+      </c>
       <c r="L666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26384,7 +25788,9 @@
         <v>0</v>
       </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="n">
+        <v>346</v>
+      </c>
       <c r="L667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26423,7 +25829,9 @@
         <v>0</v>
       </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="n">
+        <v>346</v>
+      </c>
       <c r="L668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26462,7 +25870,9 @@
         <v>0</v>
       </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="n">
+        <v>346</v>
+      </c>
       <c r="L669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26501,7 +25911,9 @@
         <v>0</v>
       </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="n">
+        <v>346</v>
+      </c>
       <c r="L670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26540,7 +25952,9 @@
         <v>0</v>
       </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="n">
+        <v>346</v>
+      </c>
       <c r="L671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26579,7 +25993,9 @@
         <v>0</v>
       </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="n">
+        <v>346</v>
+      </c>
       <c r="L672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26618,7 +26034,9 @@
         <v>0</v>
       </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="n">
+        <v>346</v>
+      </c>
       <c r="L673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26657,7 +26075,9 @@
         <v>0</v>
       </c>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="n">
+        <v>346</v>
+      </c>
       <c r="L674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26696,7 +26116,9 @@
         <v>0</v>
       </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="n">
+        <v>346</v>
+      </c>
       <c r="L675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26735,7 +26157,9 @@
         <v>0</v>
       </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="n">
+        <v>346</v>
+      </c>
       <c r="L676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26774,7 +26198,9 @@
         <v>0</v>
       </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="n">
+        <v>346</v>
+      </c>
       <c r="L677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26813,7 +26239,9 @@
         <v>0</v>
       </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="n">
+        <v>346</v>
+      </c>
       <c r="L678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26852,7 +26280,9 @@
         <v>0</v>
       </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="n">
+        <v>346</v>
+      </c>
       <c r="L679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26891,7 +26321,9 @@
         <v>0</v>
       </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="n">
+        <v>346</v>
+      </c>
       <c r="L680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26930,7 +26362,9 @@
         <v>0</v>
       </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="n">
+        <v>346</v>
+      </c>
       <c r="L681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26969,7 +26403,9 @@
         <v>0</v>
       </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="n">
+        <v>346</v>
+      </c>
       <c r="L682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27008,7 +26444,9 @@
         <v>0</v>
       </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="n">
+        <v>346</v>
+      </c>
       <c r="L683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27047,7 +26485,9 @@
         <v>0</v>
       </c>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="n">
+        <v>346</v>
+      </c>
       <c r="L684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27086,7 +26526,9 @@
         <v>0</v>
       </c>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="n">
+        <v>346</v>
+      </c>
       <c r="L685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27125,7 +26567,9 @@
         <v>0</v>
       </c>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="n">
+        <v>346</v>
+      </c>
       <c r="L686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27164,7 +26608,9 @@
         <v>0</v>
       </c>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="n">
+        <v>346</v>
+      </c>
       <c r="L687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27203,7 +26649,9 @@
         <v>0</v>
       </c>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="n">
+        <v>346</v>
+      </c>
       <c r="L688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27242,7 +26690,9 @@
         <v>0</v>
       </c>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="n">
+        <v>346</v>
+      </c>
       <c r="L689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27281,7 +26731,9 @@
         <v>0</v>
       </c>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="n">
+        <v>346</v>
+      </c>
       <c r="L690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27320,7 +26772,9 @@
         <v>0</v>
       </c>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="n">
+        <v>346</v>
+      </c>
       <c r="L691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27359,7 +26813,9 @@
         <v>0</v>
       </c>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="n">
+        <v>346</v>
+      </c>
       <c r="L692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27398,7 +26854,9 @@
         <v>0</v>
       </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="n">
+        <v>346</v>
+      </c>
       <c r="L693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27437,7 +26895,9 @@
         <v>0</v>
       </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="n">
+        <v>346</v>
+      </c>
       <c r="L694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27476,7 +26936,9 @@
         <v>0</v>
       </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="n">
+        <v>346</v>
+      </c>
       <c r="L695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27512,17 +26974,19 @@
         <v>0</v>
       </c>
       <c r="I696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="n">
+        <v>346</v>
+      </c>
       <c r="L696" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M696" t="n">
-        <v>1</v>
+        <v>1.015231213872833</v>
       </c>
     </row>
     <row r="697">
@@ -27551,15 +27015,11 @@
         <v>0</v>
       </c>
       <c r="I697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -27594,11 +27054,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -27629,16 +27085,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M699" t="inlineStr"/>
+      <c r="L699" t="inlineStr"/>
+      <c r="M699" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -36168,14 +35622,20 @@
         <v>350.1833333333333</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I943" t="n">
         <v>0</v>
       </c>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>347</v>
+      </c>
       <c r="K943" t="inlineStr"/>
-      <c r="L943" t="inlineStr"/>
+      <c r="L943" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M943" t="n">
         <v>1</v>
       </c>
@@ -36203,14 +35663,20 @@
         <v>350.1166666666667</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I944" t="n">
         <v>0</v>
       </c>
-      <c r="J944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>347</v>
+      </c>
       <c r="K944" t="inlineStr"/>
-      <c r="L944" t="inlineStr"/>
+      <c r="L944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M944" t="n">
         <v>1</v>
       </c>
@@ -36245,7 +35711,11 @@
       </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr"/>
-      <c r="L945" t="inlineStr"/>
+      <c r="L945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M945" t="n">
         <v>1</v>
       </c>
@@ -36280,7 +35750,11 @@
       </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>
-      <c r="L946" t="inlineStr"/>
+      <c r="L946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M946" t="n">
         <v>1</v>
       </c>
@@ -36315,7 +35789,11 @@
       </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr"/>
-      <c r="L947" t="inlineStr"/>
+      <c r="L947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M947" t="n">
         <v>1</v>
       </c>
@@ -36350,7 +35828,11 @@
       </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr"/>
-      <c r="L948" t="inlineStr"/>
+      <c r="L948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M948" t="n">
         <v>1</v>
       </c>
@@ -36378,14 +35860,20 @@
         <v>349.7333333333333</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I949" t="n">
         <v>0</v>
       </c>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>347</v>
+      </c>
       <c r="K949" t="inlineStr"/>
-      <c r="L949" t="inlineStr"/>
+      <c r="L949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M949" t="n">
         <v>1</v>
       </c>
@@ -36413,14 +35901,20 @@
         <v>349.7</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I950" t="n">
         <v>0</v>
       </c>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>347</v>
+      </c>
       <c r="K950" t="inlineStr"/>
-      <c r="L950" t="inlineStr"/>
+      <c r="L950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M950" t="n">
         <v>1</v>
       </c>
@@ -36448,14 +35942,20 @@
         <v>349.65</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I951" t="n">
         <v>0</v>
       </c>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>348</v>
+      </c>
       <c r="K951" t="inlineStr"/>
-      <c r="L951" t="inlineStr"/>
+      <c r="L951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M951" t="n">
         <v>1</v>
       </c>
@@ -36483,14 +35983,20 @@
         <v>349.5666666666667</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I952" t="n">
         <v>0</v>
       </c>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>347</v>
+      </c>
       <c r="K952" t="inlineStr"/>
-      <c r="L952" t="inlineStr"/>
+      <c r="L952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M952" t="n">
         <v>1</v>
       </c>
@@ -36525,7 +36031,11 @@
       </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr"/>
-      <c r="L953" t="inlineStr"/>
+      <c r="L953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M953" t="n">
         <v>1</v>
       </c>
@@ -36560,7 +36070,11 @@
       </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr"/>
-      <c r="L954" t="inlineStr"/>
+      <c r="L954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M954" t="n">
         <v>1</v>
       </c>
@@ -36595,7 +36109,11 @@
       </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr"/>
-      <c r="L955" t="inlineStr"/>
+      <c r="L955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M955" t="n">
         <v>1</v>
       </c>
@@ -36623,14 +36141,20 @@
         <v>349.3166666666667</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I956" t="n">
         <v>0</v>
       </c>
-      <c r="J956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>347</v>
+      </c>
       <c r="K956" t="inlineStr"/>
-      <c r="L956" t="inlineStr"/>
+      <c r="L956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M956" t="n">
         <v>1</v>
       </c>
@@ -36658,14 +36182,20 @@
         <v>349.25</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>0</v>
       </c>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>348</v>
+      </c>
       <c r="K957" t="inlineStr"/>
-      <c r="L957" t="inlineStr"/>
+      <c r="L957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M957" t="n">
         <v>1</v>
       </c>
@@ -36693,14 +36223,20 @@
         <v>349.1833333333333</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>0</v>
       </c>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>348</v>
+      </c>
       <c r="K958" t="inlineStr"/>
-      <c r="L958" t="inlineStr"/>
+      <c r="L958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M958" t="n">
         <v>1</v>
       </c>
@@ -36735,7 +36271,11 @@
       </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr"/>
-      <c r="L959" t="inlineStr"/>
+      <c r="L959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M959" t="n">
         <v>1</v>
       </c>
@@ -36770,7 +36310,11 @@
       </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr"/>
-      <c r="L960" t="inlineStr"/>
+      <c r="L960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M960" t="n">
         <v>1</v>
       </c>
@@ -36805,7 +36349,11 @@
       </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr"/>
-      <c r="L961" t="inlineStr"/>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M961" t="n">
         <v>1</v>
       </c>
@@ -36840,7 +36388,11 @@
       </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr"/>
-      <c r="L962" t="inlineStr"/>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M962" t="n">
         <v>1</v>
       </c>
@@ -36875,7 +36427,11 @@
       </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr"/>
-      <c r="L963" t="inlineStr"/>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M963" t="n">
         <v>1</v>
       </c>
@@ -36910,7 +36466,11 @@
       </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr"/>
-      <c r="L964" t="inlineStr"/>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M964" t="n">
         <v>1</v>
       </c>
@@ -36945,7 +36505,11 @@
       </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr"/>
-      <c r="L965" t="inlineStr"/>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M965" t="n">
         <v>1</v>
       </c>
@@ -36980,7 +36544,11 @@
       </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr"/>
-      <c r="L966" t="inlineStr"/>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M966" t="n">
         <v>1</v>
       </c>
@@ -37015,7 +36583,11 @@
       </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr"/>
-      <c r="L967" t="inlineStr"/>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M967" t="n">
         <v>1</v>
       </c>
@@ -37050,7 +36622,11 @@
       </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr"/>
-      <c r="L968" t="inlineStr"/>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M968" t="n">
         <v>1</v>
       </c>
@@ -37085,7 +36661,11 @@
       </c>
       <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr"/>
-      <c r="L969" t="inlineStr"/>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M969" t="n">
         <v>1</v>
       </c>
@@ -37120,7 +36700,11 @@
       </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr"/>
-      <c r="L970" t="inlineStr"/>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M970" t="n">
         <v>1</v>
       </c>
@@ -37155,7 +36739,11 @@
       </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr"/>
-      <c r="L971" t="inlineStr"/>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M971" t="n">
         <v>1</v>
       </c>
@@ -37190,7 +36778,11 @@
       </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr"/>
-      <c r="L972" t="inlineStr"/>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M972" t="n">
         <v>1</v>
       </c>
@@ -37225,7 +36817,11 @@
       </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr"/>
-      <c r="L973" t="inlineStr"/>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M973" t="n">
         <v>1</v>
       </c>
@@ -37260,7 +36856,11 @@
       </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr"/>
-      <c r="L974" t="inlineStr"/>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M974" t="n">
         <v>1</v>
       </c>
@@ -37295,7 +36895,11 @@
       </c>
       <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr"/>
-      <c r="L975" t="inlineStr"/>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M975" t="n">
         <v>1</v>
       </c>
@@ -37330,7 +36934,11 @@
       </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr"/>
-      <c r="L976" t="inlineStr"/>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M976" t="n">
         <v>1</v>
       </c>
@@ -37365,7 +36973,11 @@
       </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr"/>
-      <c r="L977" t="inlineStr"/>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M977" t="n">
         <v>1</v>
       </c>
@@ -37400,7 +37012,11 @@
       </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr"/>
-      <c r="L978" t="inlineStr"/>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M978" t="n">
         <v>1</v>
       </c>
@@ -37435,7 +37051,11 @@
       </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr"/>
-      <c r="L979" t="inlineStr"/>
+      <c r="L979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M979" t="n">
         <v>1</v>
       </c>
@@ -37470,7 +37090,11 @@
       </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr"/>
-      <c r="L980" t="inlineStr"/>
+      <c r="L980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M980" t="n">
         <v>1</v>
       </c>
@@ -37505,7 +37129,11 @@
       </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr"/>
-      <c r="L981" t="inlineStr"/>
+      <c r="L981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M981" t="n">
         <v>1</v>
       </c>
@@ -37540,7 +37168,11 @@
       </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr"/>
-      <c r="L982" t="inlineStr"/>
+      <c r="L982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M982" t="n">
         <v>1</v>
       </c>
@@ -37575,7 +37207,11 @@
       </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr"/>
-      <c r="L983" t="inlineStr"/>
+      <c r="L983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M983" t="n">
         <v>1</v>
       </c>
@@ -37610,7 +37246,11 @@
       </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr"/>
-      <c r="L984" t="inlineStr"/>
+      <c r="L984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M984" t="n">
         <v>1</v>
       </c>
@@ -37645,7 +37285,11 @@
       </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr"/>
-      <c r="L985" t="inlineStr"/>
+      <c r="L985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M985" t="n">
         <v>1</v>
       </c>
@@ -37680,7 +37324,11 @@
       </c>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr"/>
-      <c r="L986" t="inlineStr"/>
+      <c r="L986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M986" t="n">
         <v>1</v>
       </c>
@@ -37715,7 +37363,11 @@
       </c>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr"/>
-      <c r="L987" t="inlineStr"/>
+      <c r="L987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M987" t="n">
         <v>1</v>
       </c>
@@ -37750,7 +37402,11 @@
       </c>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr"/>
-      <c r="L988" t="inlineStr"/>
+      <c r="L988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M988" t="n">
         <v>1</v>
       </c>
@@ -37785,7 +37441,11 @@
       </c>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr"/>
-      <c r="L989" t="inlineStr"/>
+      <c r="L989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M989" t="n">
         <v>1</v>
       </c>
@@ -37820,7 +37480,11 @@
       </c>
       <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr"/>
-      <c r="L990" t="inlineStr"/>
+      <c r="L990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M990" t="n">
         <v>1</v>
       </c>
@@ -37855,7 +37519,11 @@
       </c>
       <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr"/>
-      <c r="L991" t="inlineStr"/>
+      <c r="L991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M991" t="n">
         <v>1</v>
       </c>
@@ -37890,7 +37558,11 @@
       </c>
       <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr"/>
-      <c r="L992" t="inlineStr"/>
+      <c r="L992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M992" t="n">
         <v>1</v>
       </c>
@@ -37925,7 +37597,11 @@
       </c>
       <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr"/>
-      <c r="L993" t="inlineStr"/>
+      <c r="L993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M993" t="n">
         <v>1</v>
       </c>
@@ -37960,7 +37636,11 @@
       </c>
       <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr"/>
-      <c r="L994" t="inlineStr"/>
+      <c r="L994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M994" t="n">
         <v>1</v>
       </c>
@@ -37995,7 +37675,11 @@
       </c>
       <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr"/>
-      <c r="L995" t="inlineStr"/>
+      <c r="L995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M995" t="n">
         <v>1</v>
       </c>
@@ -38030,7 +37714,11 @@
       </c>
       <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr"/>
-      <c r="L996" t="inlineStr"/>
+      <c r="L996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M996" t="n">
         <v>1</v>
       </c>
@@ -38065,7 +37753,11 @@
       </c>
       <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr"/>
-      <c r="L997" t="inlineStr"/>
+      <c r="L997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M997" t="n">
         <v>1</v>
       </c>
@@ -38100,7 +37792,11 @@
       </c>
       <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr"/>
-      <c r="L998" t="inlineStr"/>
+      <c r="L998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M998" t="n">
         <v>1</v>
       </c>
@@ -38135,7 +37831,11 @@
       </c>
       <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr"/>
-      <c r="L999" t="inlineStr"/>
+      <c r="L999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M999" t="n">
         <v>1</v>
       </c>
